--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018704.03264648</v>
+        <v>2122883.667097551</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041388</v>
       </c>
       <c r="H2" t="n">
-        <v>126.5388824951716</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -744,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554016</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773068</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>55.85833307891207</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>221.7048515690735</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>325.0414143888703</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>140.1563188766234</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9.719604885175045</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>175.3944988425868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>77.42639794035698</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>297.4172601613737</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>188.151861597339</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>210.8035104954937</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695476</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>134.45556153538</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428257</v>
+        <v>52.10645541514074</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>101.6969570046971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>57.24347904696321</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722606</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>224.8341963325692</v>
+        <v>201.4105577836242</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2606,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>2.607010073152018</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>72.2376664596877</v>
       </c>
     </row>
     <row r="29">
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>95.25381996636106</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>143.1086912616894</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.006892987834117</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>205.8964840581836</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>112.1382188876854</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>11.56087338713452</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>192.8170508184324</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892427719</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.400891308158</v>
+        <v>1822.632236038045</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.438374367746</v>
+        <v>1453.669719097633</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.172675760996</v>
+        <v>1095.404020490883</v>
       </c>
       <c r="E2" t="n">
-        <v>1062.384423162752</v>
+        <v>709.6157678926384</v>
       </c>
       <c r="F2" t="n">
-        <v>651.398518373144</v>
+        <v>298.6298631030308</v>
       </c>
       <c r="G2" t="n">
-        <v>236.3260682181405</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609171</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X2" t="n">
-        <v>2952.140063348092</v>
+        <v>2599.371408077978</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.00073137228</v>
+        <v>2209.232076102167</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686068</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064743</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080124</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373024</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.3613929424835</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C4" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962299</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588489</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886967</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068866</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596454</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="U4" t="n">
-        <v>672.7785629794441</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="V4" t="n">
-        <v>672.7785629794441</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="W4" t="n">
-        <v>383.3613929424835</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X4" t="n">
-        <v>383.3613929424835</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.3613929424835</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.124011696102</v>
+        <v>1990.120246683347</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.124011696102</v>
+        <v>1621.157729742935</v>
       </c>
       <c r="D5" t="n">
-        <v>1004.858313089352</v>
+        <v>1262.892031136185</v>
       </c>
       <c r="E5" t="n">
-        <v>619.0700604911076</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>208.0841557015</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997116</v>
+        <v>2766.85941872328</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736036</v>
+        <v>2766.85941872328</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.723851760224</v>
+        <v>2376.720086747468</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4750,25 +4752,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025392</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>639.3706644025392</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>639.3706644025392</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X7" t="n">
-        <v>411.3811135045219</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y7" t="n">
-        <v>234.2149530574645</v>
+        <v>319.8727631082783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3137.106670368228</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3137.106670368228</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>3137.106670368228</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W8" t="n">
-        <v>3137.106670368228</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="U10" t="n">
-        <v>730.8346203663273</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="V10" t="n">
-        <v>476.1501321604404</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="W10" t="n">
-        <v>476.1501321604404</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X10" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459591</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>768.5380889459591</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919729</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761988</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,13 +5305,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714565</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872154</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,28 +5740,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5777,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6032,7 +6034,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2546.907945506608</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>3042.233551722367</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>3639.612039348919</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>4267.210002903525</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>642.8692823226941</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>473.9330993947872</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>323.8164599824514</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1817.401535437329</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V25" t="n">
-        <v>1562.717047231442</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W25" t="n">
-        <v>1273.299877194481</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X25" t="n">
-        <v>1045.310326296464</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y25" t="n">
-        <v>824.5177471529338</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
         <v>631.7012443408906</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6460,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6548,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3050.708758511721</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>2881.772575583814</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583814</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2350.747103816259</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2131.145638839201</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V31" t="n">
-        <v>3970.556523420469</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W31" t="n">
-        <v>3681.139353383508</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X31" t="n">
-        <v>3453.149802485491</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>3232.357223341961</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6835,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6929,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>577.8620388433919</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C37" t="n">
-        <v>408.925855915485</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1497.70980375214</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1208.292633715179</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>980.3030828171618</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>759.5105036736317</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,37 +7426,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>2977.325134535463</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>2808.388951607556</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>2491.076212910101</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>2349.364381752299</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853356</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580256</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580256</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>2252.19838578386</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U43" t="n">
-        <v>1963.123159128057</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V43" t="n">
-        <v>1708.43867092217</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W43" t="n">
-        <v>1419.02150088521</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
     <row r="44">
@@ -7640,52 +7642,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121598</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121598</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121598</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270397</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7822,34 +7824,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>14.1599114828324</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>44.73700564187207</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194129</v>
+        <v>88.18825743108314</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>44.73700564187209</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>123.7828069546814</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.35027805667494</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>146.0084629450603</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>146.3469868924071</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>85.77246603528353</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>109.0289520621386</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>12.68816929391119</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>69.70496293143101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.58839950885587</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219467</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775398</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841353.9758775395</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516049</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516053</v>
-      </c>
-      <c r="C2" t="n">
-        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516055</v>
@@ -26323,37 +26325,37 @@
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="H2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="O2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405237</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26448,7 +26450,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414334</v>
+        <v>-935020.1472414343</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861598</v>
+        <v>393724.5984861602</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861597</v>
+        <v>393724.5984861595</v>
       </c>
       <c r="E6" t="n">
-        <v>143819.5971021242</v>
+        <v>143819.597102125</v>
       </c>
       <c r="F6" t="n">
+        <v>469232.0589094803</v>
+      </c>
+      <c r="G6" t="n">
+        <v>469232.0589094799</v>
+      </c>
+      <c r="H6" t="n">
         <v>469232.0589094798</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>469232.0589094801</v>
       </c>
-      <c r="H6" t="n">
-        <v>469232.0589094802</v>
-      </c>
-      <c r="I6" t="n">
-        <v>469232.0589094798</v>
-      </c>
       <c r="J6" t="n">
-        <v>251700.8565122024</v>
+        <v>251700.8565122022</v>
       </c>
       <c r="K6" t="n">
         <v>469232.0589094799</v>
       </c>
       <c r="L6" t="n">
-        <v>469232.05890948</v>
+        <v>469232.0589094801</v>
       </c>
       <c r="M6" t="n">
-        <v>384177.030973968</v>
+        <v>384177.0309739683</v>
       </c>
       <c r="N6" t="n">
+        <v>469232.0589094803</v>
+      </c>
+      <c r="O6" t="n">
+        <v>469232.0589094801</v>
+      </c>
+      <c r="P6" t="n">
         <v>469232.0589094799</v>
-      </c>
-      <c r="O6" t="n">
-        <v>469232.05890948</v>
-      </c>
-      <c r="P6" t="n">
-        <v>469232.0589094802</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.151183928454528e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.151183928454528e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.151183928454528e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.151183928454528e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.151183928454528e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.151183928454528e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.151183928454528e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>181.1251564493146</v>
       </c>
       <c r="H2" t="n">
-        <v>168.0688818921489</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27524,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-2.415845301584341e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>230.3535051267008</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>64.81814676751748</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>56.88895568339149</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>270.76540677683</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>136.7143577613941</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.19015450950798</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>126.4915721992632</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>51.82370855603926</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>98.05997660827384</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>75.71948784109728</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>5.350678640325554e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28384,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.816980961625535e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29044,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.109723465859766e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328816</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772175</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>375.1407109807911</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496639</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32485,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32549,31 +32551,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32713,7 +32715,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
         <v>965.6463440175675</v>
@@ -32783,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>303.402437346475</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,25 +33022,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33202,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33266,13 +33268,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>245.8118639189582</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33427,7 +33429,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,10 +33505,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>744.5154887882966</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034297</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966719</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840384</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106947</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014231</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884371</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028584537</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>243.7989988974578</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462695</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>485.6519634391653</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663306</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>165.560998372116</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36914,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>602.3814548662783</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37953,7 +37955,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38190,7 +38192,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122883.667097551</v>
+        <v>2118871.057083558</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9729296.60764407</v>
+        <v>9729296.607644068</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674901936</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>229.7965692041388</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773068</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>73.08937855085944</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>221.7048515690735</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>210.6046526660757</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>325.0414143888703</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>22.15163048455398</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>9.719604885175045</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>42.64559995940316</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>297.4172601613737</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>93.35882079147999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>210.8035104954937</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695476</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>120.7871326503968</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>52.10645541514074</v>
+        <v>83.06560892428081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>112.7304175246777</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444117</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>132.3950627812467</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>57.24347904696321</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>201.4105577836242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.2376664596877</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>95.25381996636106</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>181.057283176784</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>205.8964840581836</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>112.1382188876854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>31.83025205763987</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>11.56087338713452</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.632236038045</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1453.669719097633</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1095.404020490883</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>709.6157678926384</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>298.6298631030308</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609172</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339058</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X2" t="n">
-        <v>2599.371408077978</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.232076102167</v>
+        <v>2424.744041450752</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686068</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064743</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080124</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373024</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218345</v>
+        <v>290.4564109463973</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218345</v>
+        <v>290.4564109463973</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218345</v>
+        <v>140.3397715340616</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218345</v>
+        <v>140.3397715340616</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962299</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372935</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596509</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588489</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886967</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068866</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596454</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>696.9427113039706</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059532</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>472.1048757766371</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1990.120246683347</v>
+        <v>1891.353293732296</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.157729742935</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1262.892031136185</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993395</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993395</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2766.85941872328</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2766.85941872328</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2376.720086747468</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.8727631082783</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="C7" t="n">
-        <v>319.8727631082783</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D7" t="n">
-        <v>319.8727631082783</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4749,28 +4749,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452389</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>609.2899331452389</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>609.2899331452389</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>319.8727631082783</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X7" t="n">
-        <v>319.8727631082783</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y7" t="n">
-        <v>319.8727631082783</v>
+        <v>403.4802848832071</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1917.382287315189</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3282.529458013814</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265602</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W8" t="n">
-        <v>2694.121459355123</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X8" t="n">
-        <v>2694.121459355123</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.982127379311</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218345</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218345</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218345</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>307.0311423976387</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145379</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>507.4345062145379</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>507.4345062145379</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>294.5016673302008</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218345</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218345</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5178,19 +5178,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E16" t="n">
-        <v>228.5361496476752</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F16" t="n">
-        <v>228.5361496476752</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G16" t="n">
-        <v>228.5361496476752</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5506,13 +5506,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111714</v>
@@ -5524,43 +5524,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362665</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5980,40 +5980,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,16 +6025,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6217,37 +6217,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2350.747103816259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2131.145638839201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1842.070412183399</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.385923977512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.3544215660705</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.0028863963103</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3997.308687575531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2977.325134535463</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C43" t="n">
-        <v>2808.388951607556</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D43" t="n">
-        <v>2658.272312195221</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E43" t="n">
-        <v>2658.272312195221</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F43" t="n">
-        <v>2658.272312195221</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="G43" t="n">
-        <v>2491.076212910101</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2349.364381752299</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3379.766178509233</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3158.973599365703</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>44.73700564187207</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>88.18825743108314</v>
+        <v>57.22910392194308</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>105.8542358274171</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7828069546814</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>146.3469868924071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>85.77246603528353</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>37.52737017531078</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.68816929391119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>69.70496293143101</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775398</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
@@ -26337,22 +26337,22 @@
         <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752548</v>
-      </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405237</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186746</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186745</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186744</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414343</v>
+        <v>-935020.1472414328</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861602</v>
+        <v>393724.5984861593</v>
       </c>
       <c r="D6" t="n">
         <v>393724.5984861595</v>
       </c>
       <c r="E6" t="n">
-        <v>143819.597102125</v>
+        <v>143472.2178477677</v>
       </c>
       <c r="F6" t="n">
-        <v>469232.0589094803</v>
+        <v>468884.679655123</v>
       </c>
       <c r="G6" t="n">
-        <v>469232.0589094799</v>
+        <v>468884.6796551226</v>
       </c>
       <c r="H6" t="n">
-        <v>469232.0589094798</v>
+        <v>468884.6796551228</v>
       </c>
       <c r="I6" t="n">
-        <v>469232.0589094801</v>
+        <v>468884.679655123</v>
       </c>
       <c r="J6" t="n">
-        <v>251700.8565122022</v>
+        <v>251353.4772578456</v>
       </c>
       <c r="K6" t="n">
-        <v>469232.0589094799</v>
+        <v>468884.6796551227</v>
       </c>
       <c r="L6" t="n">
-        <v>469232.0589094801</v>
+        <v>468884.6796551229</v>
       </c>
       <c r="M6" t="n">
-        <v>384177.0309739683</v>
+        <v>383829.6517196111</v>
       </c>
       <c r="N6" t="n">
-        <v>469232.0589094803</v>
+        <v>468884.679655123</v>
       </c>
       <c r="O6" t="n">
-        <v>469232.0589094801</v>
+        <v>468884.6796551229</v>
       </c>
       <c r="P6" t="n">
-        <v>469232.0589094799</v>
+        <v>468884.679655123</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.151183928454528e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.151183928454528e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.151183928454528e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.151183928454528e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.151183928454528e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.151183928454528e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483752</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.151183928454528e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>303.9530049144612</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>181.1251564493146</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-2.415845301584341e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>72.33166947207181</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>64.81814676751748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>154.6682391049319</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>56.88895568339149</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>145.0951906140739</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>136.7143577613941</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>161.272370180217</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>51.82370855603926</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>72.66698746754824</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>75.71948784109728</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.350678640325554e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28815,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.816980961625535e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.109723465859766e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31992,7 +31992,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
         <v>212.0155798067231</v>
@@ -32001,28 +32001,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>375.1407109807911</v>
+        <v>463.9598929192568</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32153,7 +32153,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
@@ -32168,13 +32168,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32241,7 +32241,7 @@
         <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162568</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175673</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420754</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496639</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,40 +32785,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>537.6437863443698</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,37 +33025,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33429,7 +33429,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>744.5154887882966</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034297</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966719</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286439</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840384</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230785</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567575</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106947</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014231</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>243.7989988974578</v>
+        <v>332.6181808359236</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899073</v>
@@ -35822,7 +35822,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998983</v>
@@ -35889,7 +35889,7 @@
         <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462695</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902946</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754087</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663306</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>395.0475418999253</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>572.7987818204766</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37150,19 +37150,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>602.3814548662783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2118871.057083558</v>
+        <v>2120631.587386345</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9729296.607644068</v>
+        <v>9729296.60764407</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.78083674901936</v>
+        <v>57.29212650174169</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>73.08937855085944</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>228.0656025585478</v>
       </c>
       <c r="C5" t="n">
-        <v>210.6046526660757</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>22.15163048455398</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>42.64559995940316</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>93.35882079147999</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576155</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>56.04917322726031</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272836</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428081</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>21.9028628750538</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.7304175246777</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444117</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.3950627812467</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>181.057283176784</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>31.83025205763987</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450752</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450752</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450752</v>
+        <v>2403.038273524209</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,31 +4427,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.4564109463973</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>290.4564109463973</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>140.3397715340616</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>140.3397715340616</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201672</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.1048757766371</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1891.353293732296</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
         <v>1678.62132134232</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>403.4802848832071</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
         <v>381.1049005553748</v>
@@ -4716,16 +4716,16 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812244</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>403.4802848832071</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y7" t="n">
-        <v>403.4802848832071</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3282.529458013814</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3028.99898128765</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.936093944079</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2345.167438673965</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>751.950822890278</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>601.8341834779422</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>453.9210898955491</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>307.0311423976387</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -5007,7 +5007,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,7 +5117,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179133</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258111</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396421</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359461</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614435</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179133</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
         <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400703</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121634</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121634</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121634</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121634</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270434</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138402</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.50206557031</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362665</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5980,40 +5980,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192588</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111713</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,34 +6126,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,28 +6226,28 @@
         <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6493,22 +6493,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,10 +6955,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>267.6802639609656</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>267.6802639609656</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>111.1976478713675</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194308</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.8542358274171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.43691740069059</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.52737017531078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>133.693886234629</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775398</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775398</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>1.445998413114937e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186746</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186745</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414328</v>
+        <v>-935020.1472414329</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861593</v>
+        <v>393724.5984861596</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861595</v>
+        <v>393724.5984861598</v>
       </c>
       <c r="E6" t="n">
-        <v>143472.2178477677</v>
+        <v>143784.8591766896</v>
       </c>
       <c r="F6" t="n">
-        <v>468884.679655123</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="G6" t="n">
-        <v>468884.6796551226</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="H6" t="n">
-        <v>468884.6796551228</v>
+        <v>469197.3209840443</v>
       </c>
       <c r="I6" t="n">
-        <v>468884.679655123</v>
+        <v>469197.3209840443</v>
       </c>
       <c r="J6" t="n">
-        <v>251353.4772578456</v>
+        <v>251666.1185867668</v>
       </c>
       <c r="K6" t="n">
-        <v>468884.6796551227</v>
+        <v>469197.3209840443</v>
       </c>
       <c r="L6" t="n">
-        <v>468884.6796551229</v>
+        <v>469197.3209840443</v>
       </c>
       <c r="M6" t="n">
-        <v>383829.6517196111</v>
+        <v>384142.2930485324</v>
       </c>
       <c r="N6" t="n">
-        <v>468884.679655123</v>
+        <v>469197.3209840443</v>
       </c>
       <c r="O6" t="n">
-        <v>468884.6796551229</v>
+        <v>469197.3209840443</v>
       </c>
       <c r="P6" t="n">
-        <v>468884.679655123</v>
+        <v>469197.3209840443</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26749,7 +26749,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303.9530049144612</v>
+        <v>325.4417151617389</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>72.33166947207181</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>214.4349708898184</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>154.6682391049328</v>
       </c>
       <c r="C5" t="n">
-        <v>154.6682391049319</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>145.0951906140739</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>153.6216279422646</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>161.272370180217</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>72.66698746754824</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>4.698314381224416e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.243732216450082e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-8.206768598029157e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31609,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N12" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31992,7 +31992,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
         <v>212.0155798067231</v>
@@ -32001,28 +32001,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192568</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32153,7 +32153,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
@@ -32168,13 +32168,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N12" t="n">
-        <v>508.128623392977</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359236</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899073</v>
@@ -35822,7 +35822,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998983</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
